--- a/annotated_dataset/output_batch_4.xlsx
+++ b/annotated_dataset/output_batch_4.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathu\Desktop\Courses\4NL3\paraphrasing_detection\annotated_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72687B94-C66C-4518-844C-60ECF605D505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4DABEF-8127-43EA-844B-5ED735719BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,6 +28,15 @@
     <t>Sentence 2</t>
   </si>
   <si>
+    <t>Word Similarity Score</t>
+  </si>
+  <si>
+    <t>Word Semantic Score</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
     <t>Kevin?</t>
   </si>
   <si>
@@ -900,22 +896,13 @@
   </si>
   <si>
     <t>information about the processor socket, including data related to how the processor is upgraded (supported by innovation).</t>
-  </si>
-  <si>
-    <t>Word Similarity Score</t>
-  </si>
-  <si>
-    <t>Word Semantic Score</t>
-  </si>
-  <si>
-    <t>Total Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,13 +913,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -943,7 +927,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -951,35 +935,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1285,1772 +1251,2210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="73" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="102.921875" customWidth="1"/>
-    <col min="2" max="2" width="74" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="14.3046875" customWidth="1"/>
+    <col min="1" max="1" width="38.53515625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>291</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <f>0.6*C2+0.4*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">0.6*C3+0.4*D3</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.65530303030303028</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>0.34363636363636357</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.66964285714285721</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.81746031746031744</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.2489177489177489</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.75661375661375663</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.41666666666666657</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.67238749046529367</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.76363636363636367</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.87310606060606055</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.18055555555555561</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.49159663865546221</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.76515151515151514</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.36538461538461542</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.73214285714285721</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.56725146198830412</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.39565217391304353</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.32386363636363641</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="204" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.71364221364221359</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.72916666666666674</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.41666666666666657</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="102" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.68304668304668303</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.31666666666666671</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">0.6*C67+0.4*D67</f>
+        <v>134</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.77738095238095228</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.59340659340659341</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.79059829059829057</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.80808080808080807</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.80808080808080807</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.45588235294117652</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.71578947368421053</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.93826086956521748</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.62252964426877466</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.81363636363636371</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.63786764705882359</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.80128205128205132</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+      <c r="C95" s="2">
+        <v>7.7380952380952384E-2</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.74256292906178489</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+        <v>222</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.29166666666666657</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.62878787878787878</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.81454248366013071</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.3214285714285714</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.29166666666666657</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="102" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.87974910394265238</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E131">
-        <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.64393939393939392</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+        <v>279</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.73660714285714279</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.53977272727272729</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.54595588235294112</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2">
         <v>0</v>
       </c>
     </row>

--- a/annotated_dataset/output_batch_4.xlsx
+++ b/annotated_dataset/output_batch_4.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathu\Desktop\Courses\4NL3\paraphrasing_detection\annotated_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4DABEF-8127-43EA-844B-5ED735719BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98722D4-D0FF-4435-9C30-EA2B94F54B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1251,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1295,6 +1308,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
+        <f>0.6*C2+0.4*D2</f>
         <v>1</v>
       </c>
     </row>
@@ -1308,9 +1322,12 @@
       <c r="C3" s="2">
         <v>0.65530303030303028</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
       <c r="E3" s="2">
-        <v>0.34363636363636357</v>
+        <f t="shared" ref="E3:E66" si="0">0.6*C3+0.4*D3</f>
+        <v>0.79318181818181821</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1323,9 +1340,12 @@
       <c r="C4" s="2">
         <v>0.66964285714285721</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.80178571428571432</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1338,9 +1358,12 @@
       <c r="C5" s="2">
         <v>0.6785714285714286</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.60714285714285721</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1353,9 +1376,12 @@
       <c r="C6" s="2">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.79166666666666674</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1368,9 +1394,12 @@
       <c r="C7" s="2">
         <v>0.81818181818181823</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.69090909090909092</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1383,9 +1412,12 @@
       <c r="C8" s="2">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.89583333333333326</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1398,9 +1430,12 @@
       <c r="C9" s="2">
         <v>0.81746031746031744</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.89047619047619042</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1413,9 +1448,12 @@
       <c r="C10" s="2">
         <v>0.6785714285714286</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.60714285714285721</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.4">
@@ -1428,9 +1466,12 @@
       <c r="C11" s="2">
         <v>0.2489177489177489</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.14935064935064934</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1443,9 +1484,12 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1458,9 +1502,12 @@
       <c r="C13" s="2">
         <v>0.75661375661375663</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.85396825396825404</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1473,9 +1520,12 @@
       <c r="C14" s="2">
         <v>0.41666666666666657</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1488,9 +1538,12 @@
       <c r="C15" s="2">
         <v>0.875</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="145.75" x14ac:dyDescent="0.4">
@@ -1503,9 +1556,12 @@
       <c r="C16" s="2">
         <v>0.67238749046529367</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.60343249427917622</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1518,9 +1574,12 @@
       <c r="C17" s="2">
         <v>0.875</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1533,9 +1592,12 @@
       <c r="C18" s="2">
         <v>0.73750000000000004</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.64250000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1548,9 +1610,12 @@
       <c r="C19" s="2">
         <v>0.90909090909090906</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.94545454545454544</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1563,9 +1628,12 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1578,9 +1646,12 @@
       <c r="C21" s="2">
         <v>0.5</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1593,9 +1664,12 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1608,9 +1682,12 @@
       <c r="C23" s="2">
         <v>0.76363636363636367</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.85818181818181816</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1623,9 +1700,12 @@
       <c r="C24" s="2">
         <v>0.58333333333333326</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.54999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1638,9 +1718,12 @@
       <c r="C25" s="2">
         <v>0.87310606060606055</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.92386363636363633</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1653,9 +1736,12 @@
       <c r="C26" s="2">
         <v>0.18055555555555561</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.50833333333333341</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1668,9 +1754,12 @@
       <c r="C27" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1683,8 +1772,11 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
       <c r="E28" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1698,8 +1790,11 @@
       <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
       <c r="E29" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1713,9 +1808,12 @@
       <c r="C30" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.25833333333333336</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1728,9 +1826,12 @@
       <c r="C31" s="2">
         <v>0.49159663865546221</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.29495798319327732</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1743,9 +1844,12 @@
       <c r="C32" s="2">
         <v>0.77500000000000002</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -1758,9 +1862,12 @@
       <c r="C33" s="2">
         <v>0.76515151515151514</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.85909090909090913</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1773,9 +1880,12 @@
       <c r="C34" s="2">
         <v>0.8</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
       <c r="E34" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.88</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1788,9 +1898,12 @@
       <c r="C35" s="2">
         <v>0.36538461538461542</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
       <c r="E35" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.21923076923076926</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1803,9 +1916,12 @@
       <c r="C36" s="2">
         <v>0.75</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
       <c r="E36" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1818,9 +1934,12 @@
       <c r="C37" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1833,9 +1952,12 @@
       <c r="C38" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1848,9 +1970,12 @@
       <c r="C39" s="2">
         <v>0.73214285714285721</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.83928571428571441</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1863,9 +1988,12 @@
       <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1878,8 +2006,11 @@
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
       <c r="E41" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1893,9 +2024,12 @@
       <c r="C42" s="2">
         <v>0.56725146198830412</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.74035087719298254</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1908,9 +2042,12 @@
       <c r="C43" s="2">
         <v>0.5</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1923,9 +2060,12 @@
       <c r="C44" s="2">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
       <c r="E44" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.89583333333333326</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="87.45" x14ac:dyDescent="0.4">
@@ -1938,9 +2078,12 @@
       <c r="C45" s="2">
         <v>0.39565217391304353</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63739130434782609</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1953,9 +2096,12 @@
       <c r="C46" s="2">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.89583333333333326</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1968,9 +2114,12 @@
       <c r="C47" s="2">
         <v>0.3666666666666667</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
       <c r="E47" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.62</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1983,9 +2132,12 @@
       <c r="C48" s="2">
         <v>0.32386363636363641</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.19431818181818183</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="204" x14ac:dyDescent="0.4">
@@ -1998,9 +2150,12 @@
       <c r="C49" s="2">
         <v>0.71364221364221359</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
       <c r="E49" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.8281853281853282</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -2013,9 +2168,12 @@
       <c r="C50" s="2">
         <v>0.72916666666666674</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
       <c r="E50" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.83750000000000013</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -2028,9 +2186,12 @@
       <c r="C51" s="2">
         <v>0</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
       <c r="E51" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -2043,9 +2204,12 @@
       <c r="C52" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2058,9 +2222,12 @@
       <c r="C53" s="2">
         <v>0.68571428571428572</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.61142857142857143</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2073,9 +2240,12 @@
       <c r="C54" s="2">
         <v>0.5</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2088,9 +2258,12 @@
       <c r="C55" s="2">
         <v>1</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2103,9 +2276,12 @@
       <c r="C56" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E56" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.53749999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2118,9 +2294,12 @@
       <c r="C57" s="2">
         <v>0.625</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
       <c r="E57" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2133,9 +2312,12 @@
       <c r="C58" s="2">
         <v>0</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E58" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2148,9 +2330,12 @@
       <c r="C59" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
       <c r="E59" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2163,9 +2348,12 @@
       <c r="C60" s="2">
         <v>0.5</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2178,9 +2366,12 @@
       <c r="C61" s="2">
         <v>0.41666666666666657</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
       <c r="E61" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="102" x14ac:dyDescent="0.4">
@@ -2193,9 +2384,12 @@
       <c r="C62" s="2">
         <v>0.68304668304668303</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
       <c r="E62" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.80982800982800984</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2208,9 +2402,12 @@
       <c r="C63" s="2">
         <v>0.31666666666666671</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
       <c r="E63" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.59000000000000008</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2223,9 +2420,12 @@
       <c r="C64" s="2">
         <v>0.75</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
       <c r="E64" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2238,9 +2438,12 @@
       <c r="C65" s="2">
         <v>0.48571428571428571</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
       <c r="E65" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6914285714285715</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2253,9 +2456,12 @@
       <c r="C66" s="2">
         <v>0.25</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
       <c r="E66" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -2268,9 +2474,12 @@
       <c r="C67" s="2">
         <v>0.77738095238095228</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E67" s="2">
-        <v>0</v>
+        <f t="shared" ref="E67:E130" si="1">0.6*C67+0.4*D67</f>
+        <v>0.66642857142857137</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -2283,9 +2492,12 @@
       <c r="C68" s="2">
         <v>0</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E68" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2298,9 +2510,12 @@
       <c r="C69" s="2">
         <v>0.59340659340659341</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
       <c r="E69" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.75604395604395602</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -2313,9 +2528,12 @@
       <c r="C70" s="2">
         <v>0.2</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
       <c r="E70" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.52</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2328,9 +2546,12 @@
       <c r="C71" s="2">
         <v>0.79059829059829057</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E71" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.67435897435897441</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2343,9 +2564,12 @@
       <c r="C72" s="2">
         <v>0.80808080808080807</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
       <c r="E72" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.88484848484848477</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -2358,9 +2582,12 @@
       <c r="C73" s="2">
         <v>0.3666666666666667</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
       <c r="E73" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.22</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -2373,9 +2600,12 @@
       <c r="C74" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
       <c r="E74" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -2388,9 +2618,12 @@
       <c r="C75" s="2">
         <v>0.69444444444444442</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E75" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2403,9 +2636,12 @@
       <c r="C76" s="2">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
       <c r="E76" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2418,9 +2654,12 @@
       <c r="C77" s="2">
         <v>0.59027777777777779</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E77" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5541666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -2433,9 +2672,12 @@
       <c r="C78" s="2">
         <v>0.875</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
       <c r="E78" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2448,9 +2690,12 @@
       <c r="C79" s="2">
         <v>0.80808080808080807</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
       <c r="E79" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.88484848484848477</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -2463,9 +2708,12 @@
       <c r="C80" s="2">
         <v>1</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
       <c r="E80" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2478,9 +2726,12 @@
       <c r="C81" s="2">
         <v>0.45588235294117652</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E81" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.47352941176470592</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -2493,9 +2744,12 @@
       <c r="C82" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E82" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -2508,9 +2762,12 @@
       <c r="C83" s="2">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
       <c r="E83" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2523,9 +2780,12 @@
       <c r="C84" s="2">
         <v>0.71578947368421053</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
       <c r="E84" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.82947368421052636</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -2538,9 +2798,12 @@
       <c r="C85" s="2">
         <v>0.9375</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
       <c r="E85" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.96250000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2553,9 +2816,12 @@
       <c r="C86" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
       <c r="E86" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.73</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -2568,9 +2834,12 @@
       <c r="C87" s="2">
         <v>0.93826086956521748</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
       <c r="E87" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.96295652173913049</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -2583,9 +2852,12 @@
       <c r="C88" s="2">
         <v>0.9</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
       <c r="E88" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.94000000000000006</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -2598,9 +2870,12 @@
       <c r="C89" s="2">
         <v>0.62252964426877466</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E89" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.57351778656126484</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="174.9" x14ac:dyDescent="0.4">
@@ -2613,9 +2888,12 @@
       <c r="C90" s="2">
         <v>1</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2628,9 +2906,12 @@
       <c r="C91" s="2">
         <v>0.81363636363636371</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
       <c r="E91" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.88818181818181818</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2643,9 +2924,12 @@
       <c r="C92" s="2">
         <v>0.63786764705882359</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
       <c r="E92" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.78272058823529411</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -2658,9 +2942,12 @@
       <c r="C93" s="2">
         <v>0.45</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
       <c r="E93" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2673,9 +2960,12 @@
       <c r="C94" s="2">
         <v>0.80128205128205132</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
       <c r="E94" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.88076923076923075</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2688,9 +2978,12 @@
       <c r="C95" s="2">
         <v>7.7380952380952384E-2</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
       <c r="E95" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.642857142857143E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2703,9 +2996,12 @@
       <c r="C96" s="2">
         <v>0.74256292906178489</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
       <c r="E96" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.84553775743707094</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -2718,9 +3014,12 @@
       <c r="C97" s="2">
         <v>0.61458333333333326</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E97" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.56874999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -2733,9 +3032,12 @@
       <c r="C98" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
       <c r="E98" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.66250000000000009</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -2748,9 +3050,12 @@
       <c r="C99" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
       <c r="E99" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2763,9 +3068,12 @@
       <c r="C100" s="2">
         <v>0.84615384615384615</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
       <c r="E100" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.90769230769230769</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
@@ -2778,9 +3086,12 @@
       <c r="C101" s="2">
         <v>0.8</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
       <c r="E101" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.88</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
@@ -2793,8 +3104,11 @@
       <c r="C102" s="2">
         <v>0</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
       <c r="E102" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2808,8 +3122,11 @@
       <c r="C103" s="2">
         <v>0</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
       <c r="E103" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2823,9 +3140,12 @@
       <c r="C104" s="2">
         <v>0</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E104" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -2838,9 +3158,12 @@
       <c r="C105" s="2">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
       <c r="E105" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.91428571428571426</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
@@ -2853,9 +3176,12 @@
       <c r="C106" s="2">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D106" s="2"/>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
       <c r="E106" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2868,8 +3194,11 @@
       <c r="C107" s="2">
         <v>0</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
       <c r="E107" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2883,9 +3212,12 @@
       <c r="C108" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
       <c r="E108" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
@@ -2898,9 +3230,12 @@
       <c r="C109" s="2">
         <v>0.94444444444444442</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
       <c r="E109" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2913,8 +3248,11 @@
       <c r="C110" s="2">
         <v>0</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
       <c r="E110" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2928,9 +3266,12 @@
       <c r="C111" s="2">
         <v>0.29166666666666657</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
       <c r="E111" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2943,9 +3284,12 @@
       <c r="C112" s="2">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
       <c r="E112" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.89583333333333326</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -2958,9 +3302,12 @@
       <c r="C113" s="2">
         <v>0.68571428571428572</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E113" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.61142857142857143</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -2973,8 +3320,11 @@
       <c r="C114" s="2">
         <v>0</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
       <c r="E114" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2988,8 +3338,11 @@
       <c r="C115" s="2">
         <v>0</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
       <c r="E115" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3003,9 +3356,12 @@
       <c r="C116" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
       <c r="E116" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.73750000000000004</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -3018,9 +3374,12 @@
       <c r="C117" s="2">
         <v>0.62878787878787878</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
       <c r="E117" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.77727272727272734</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
@@ -3033,9 +3392,12 @@
       <c r="C118" s="2">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
       <c r="E118" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.91428571428571426</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -3048,9 +3410,12 @@
       <c r="C119" s="2">
         <v>0.65</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
       <c r="E119" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.79</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -3063,9 +3428,12 @@
       <c r="C120" s="2">
         <v>0.81454248366013071</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
       <c r="E120" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.88872549019607838</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
@@ -3078,9 +3446,12 @@
       <c r="C121" s="2">
         <v>0.3214285714285714</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E121" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.39285714285714285</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
@@ -3093,9 +3464,12 @@
       <c r="C122" s="2">
         <v>0.29166666666666657</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E122" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -3108,9 +3482,12 @@
       <c r="C123" s="2">
         <v>0.71250000000000002</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E123" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.62749999999999995</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -3123,9 +3500,12 @@
       <c r="C124" s="2">
         <v>0.9</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
       <c r="E124" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.94000000000000006</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -3138,9 +3518,12 @@
       <c r="C125" s="2">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
       <c r="E125" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.84333333333333338</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="233.15" x14ac:dyDescent="0.4">
@@ -3153,9 +3536,12 @@
       <c r="C126" s="2">
         <v>0.87974910394265238</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
       <c r="E126" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.9278494623655914</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -3168,8 +3554,11 @@
       <c r="C127" s="2">
         <v>0</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
       <c r="E127" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3183,9 +3572,12 @@
       <c r="C128" s="2">
         <v>0.83333333333333326</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
       <c r="E128" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
@@ -3198,9 +3590,12 @@
       <c r="C129" s="2">
         <v>0.6</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
       <c r="E129" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.76</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
@@ -3213,9 +3608,12 @@
       <c r="C130" s="2">
         <v>0.75</v>
       </c>
-      <c r="D130" s="2"/>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
       <c r="E130" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
@@ -3228,9 +3626,12 @@
       <c r="C131" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
       <c r="E131" s="2">
-        <v>0</v>
+        <f t="shared" ref="E131:E146" si="2">0.6*C131+0.4*D131</f>
+        <v>0.73</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3243,9 +3644,12 @@
       <c r="C132" s="2">
         <v>0.25</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
       <c r="E132" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3258,9 +3662,12 @@
       <c r="C133" s="2">
         <v>0.64393939393939392</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E133" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.58636363636363642</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3273,9 +3680,12 @@
       <c r="C134" s="2">
         <v>1</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
       <c r="E134" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
@@ -3288,9 +3698,12 @@
       <c r="C135" s="2">
         <v>1</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
       <c r="E135" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
@@ -3303,9 +3716,12 @@
       <c r="C136" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D136" s="2"/>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
       <c r="E136" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
@@ -3318,9 +3734,12 @@
       <c r="C137" s="2">
         <v>0.375</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
       <c r="E137" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.625</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
@@ -3333,9 +3752,12 @@
       <c r="C138" s="2">
         <v>1</v>
       </c>
-      <c r="D138" s="2"/>
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
       <c r="E138" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -3348,9 +3770,12 @@
       <c r="C139" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
       <c r="E139" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3363,9 +3788,12 @@
       <c r="C140" s="2">
         <v>0.73660714285714279</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E140" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.64196428571428565</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3378,9 +3806,12 @@
       <c r="C141" s="2">
         <v>0.4642857142857143</v>
       </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
       <c r="E141" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -3393,9 +3824,12 @@
       <c r="C142" s="2">
         <v>0.53977272727272729</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
       <c r="E142" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.72386363636363638</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
@@ -3408,8 +3842,11 @@
       <c r="C143" s="2">
         <v>0</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
       <c r="E143" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3423,9 +3860,12 @@
       <c r="C144" s="2">
         <v>0.73888888888888893</v>
       </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E144" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.64333333333333331</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -3438,9 +3878,12 @@
       <c r="C145" s="2">
         <v>0.16666666666666671</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
       <c r="E145" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.10000000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
@@ -3453,9 +3896,12 @@
       <c r="C146" s="2">
         <v>0.54595588235294112</v>
       </c>
-      <c r="D146" s="2"/>
+      <c r="D146" s="2">
+        <v>1</v>
+      </c>
       <c r="E146" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.72757352941176467</v>
       </c>
     </row>
   </sheetData>
